--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Clase-trans_orig.xlsx
@@ -16365,12 +16365,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -16380,12 +16380,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -16669,12 +16669,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -16684,12 +16684,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -16782,12 +16782,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -16797,12 +16797,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">

--- a/data/trans_orig/TIEMPO_DOMICILIO_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO_CAT-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en País Vasco</t>
+          <t>Número de años residiendo en el domicilio por categorías en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6353,7 +6353,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Andalucia</t>
+          <t>Número de años residiendo en el domicilio por categorías en Andalucia (tasa de respuesta: 97,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12160,7 +12160,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana</t>
+          <t>Número de años residiendo en el domicilio por categorías en C.Valenciana (tasa de respuesta: 91,47%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17967,7 +17967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio por categorías en Barcelona</t>
+          <t>Número de años residiendo en el domicilio por categorías en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
